--- a/biology/Histoire de la zoologie et de la botanique/George_Samuel_Jenman/George_Samuel_Jenman.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/George_Samuel_Jenman/George_Samuel_Jenman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">George Samuel Jenman (1845-1902) est un collecteur et botaniste britannique.
 Membre de la Linnean society, il a été le fondateur et le superintendant du jardin botanique de Georgetown (République coopérative du Guyana) de 1879 à 1902.
@@ -512,7 +524,9 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>A hand-list of the Jamaica ferns and their allies - Demara : Baldwin and co., 1881 Téléchargeable sur OpenLibrary</t>
         </is>
@@ -542,7 +556,9 @@
           <t>Plantes qui lui ont été dédiées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les genres Jenmania Rolfe (de la famille des Orchidacées) et Jenmaniella Engl. (de la famille des Podostémacées) ainsi que de nombreuses espèces de plantes lui ont été dédiées :
 </t>
